--- a/biology/Zoologie/Hespérie_tyrrhénienne/Hespérie_tyrrhénienne.xlsx
+++ b/biology/Zoologie/Hespérie_tyrrhénienne/Hespérie_tyrrhénienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_tyrrh%C3%A9nienne</t>
+          <t>Hespérie_tyrrhénienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spialia therapne
 L’Hespérie tyrrhénienne (Spialia therapne), aussi appelée Tacheté tyrrhénien ou Roussâtre corse,  est une espèce de lépidoptères de la famille des Hesperiidae et de la sous-famille des Pyrginae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_tyrrh%C3%A9nienne</t>
+          <t>Hespérie_tyrrhénienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En français : l'Hespérie tyrrhénienne, le Tacheté tyrrhénien ou la Roussâtre corse[1].
-En anglais : Corsican Red Underwing Skipper[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En français : l'Hespérie tyrrhénienne, le Tacheté tyrrhénien ou la Roussâtre corse.
+En anglais : Corsican Red Underwing Skipper.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_tyrrh%C3%A9nienne</t>
+          <t>Hespérie_tyrrhénienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago de l'Hespérie tyrrhénienne est un petit papillon d'une envergure de 19 à 21 mm. 
 Le dessus des ailes marron roux à frange blanche entrecoupée de sombre, orné de petites taches blanches. 
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_tyrrh%C3%A9nienne</t>
+          <t>Hespérie_tyrrhénienne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hespérie tyrrhénienne est endémique de Corse et de Sardaigne, où elle remplace l'espèce voisine Spialia sertorius qui est répandue sur le continent.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_tyrrh%C3%A9nienne</t>
+          <t>Hespérie_tyrrhénienne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Spialia therapne a été décrite par l'entomologiste français Jules Pierre Rambur en 1832, sous le nom initila d’Hesperia therapne.
 Elle était auparavant considérée comme une sous-espèce de Spialia sertorius.
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_tyrrh%C3%A9nienne</t>
+          <t>Hespérie_tyrrhénienne</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
